--- a/Person.xlsx
+++ b/Person.xlsx
@@ -38,16 +38,16 @@
     <t>Reza</t>
   </si>
   <si>
-    <t>Rezayi</t>
+    <t>Razavi</t>
   </si>
   <si>
     <t>09101111111</t>
   </si>
   <si>
-    <t>Mohammad</t>
+    <t>Ahmad</t>
   </si>
   <si>
-    <t>Mohammadi</t>
+    <t>Ahmadi</t>
   </si>
   <si>
     <t>09351111111</t>
